--- a/biology/Botanique/Salix_tenuijulis/Salix_tenuijulis.xlsx
+++ b/biology/Botanique/Salix_tenuijulis/Salix_tenuijulis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Salix tenuijulis est une espèce de saule de la famille des Salicaceae, originaire de l'est de l'Asie.
@@ -512,13 +524,15 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Salix alberti Regel[1],[2]
-Salix przewalskii E.L. Wolf[1]
-Salix serrulatifolia E.L. Wolf[1],[2].
-Salix spinidens E.L. Wolf[2].
-Salix tenuijulis var. 'alberti' Poljakov[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Salix alberti Regel,
+Salix przewalskii E.L. Wolf
+Salix serrulatifolia E.L. Wolf,.
+Salix spinidens E.L. Wolf.
+Salix tenuijulis var. 'alberti' Poljakov.</t>
         </is>
       </c>
     </row>
@@ -546,10 +560,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Salix tenuijulis  est enregistré en Chine	(Xinjiang, Uygur), au Kazakhstan, au Kyrgyzstan, et en Mongolie[2].
-A. K. Skvortsov pense que cette espèce devrait être répertoriée dans la section Helix à cause de sa grande ressemblance avec Salix longistamina[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Salix tenuijulis  est enregistré en Chine	(Xinjiang, Uygur), au Kazakhstan, au Kyrgyzstan, et en Mongolie.
+A. K. Skvortsov pense que cette espèce devrait être répertoriée dans la section Helix à cause de sa grande ressemblance avec Salix longistamina.
 </t>
         </is>
       </c>
